--- a/data/atenuacions_generacions.xlsx
+++ b/data/atenuacions_generacions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Desktop\ICRA\traca\inputs compound generator\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joans\OneDrive\Escriptori\icra\traca_contaminacio\traca_contaminacio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CF5790-5630-4708-B651-475B3620B6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B44B6F-92D4-4F70-A776-0B9B67B76993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5190" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{3E496A17-2DFC-444D-AF2A-2E041A081BD5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="21705" xr2:uid="{3E496A17-2DFC-444D-AF2A-2E041A081BD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -667,17 +666,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE9104B-031B-40A3-A03F-BC2098EC6758}">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="15" max="15" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -727,7 +726,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -777,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -827,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -877,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -927,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -977,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1027,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -1231,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1331,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1485,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1535,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1689,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1839,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1889,7 +1888,7 @@
         <v>27.206365999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2039,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2139,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>3.2655219999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2239,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2289,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2439,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2489,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>6.0059199999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -2592,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2692,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -2792,7 +2791,7 @@
         <v>14.065899999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2842,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2892,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2942,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -3042,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -3092,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -3142,7 +3141,7 @@
         <v>682.42</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3192,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -3242,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -3292,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -3392,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v>0.62361999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -3542,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -3592,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -3642,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -3692,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -3742,7 +3741,7 @@
         <v>3.3879999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -3792,7 +3791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>0.484153</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -3992,7 +3991,7 @@
         <v>0.484153</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>0.484153</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -4142,7 +4141,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -4192,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
